--- a/public/excel_templates/transaction_templates/grn_template.xlsx
+++ b/public/excel_templates/transaction_templates/grn_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp8.2\htdocs\MaxVita\public\excel_templates\transaction_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{205DAD21-E088-45BE-A22D-65E4F8FE76F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF40E7A-9B7E-4E58-8E67-2EF4CA63BDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{7A1F0C11-C07A-4CE2-B944-360EF422E5C7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Vendor Name:</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Location:</t>
   </si>
   <si>
-    <t>Grn Type(RM/FG):</t>
-  </si>
-  <si>
     <t>Invoice Number:</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>Item Name</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Date of Manufacture</t>
   </si>
   <si>
@@ -73,6 +67,9 @@
   </si>
   <si>
     <t>Total Quantity</t>
+  </si>
+  <si>
+    <t>Number Of Barcodes</t>
   </si>
 </sst>
 </file>
@@ -449,61 +446,59 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
